--- a/data/processed/Nylon_Recycling_Summary.xlsx
+++ b/data/processed/Nylon_Recycling_Summary.xlsx
@@ -665,7 +665,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>The invention involves composites with a thermoplastic matrix made of modified PVDF. The composite can be a pelletized long-fiber material or a thermoplastic composite pipe. The PVDF content in the matrix is at least 80% by weight, with a melt flow index of 18-50 g/10 min. The composite may include an acrylate copolymer with carboxylic anhydride units, and the fibers make up 10-80% of the composite's volume. The invention covers various forms of the composite, including unidirectionally continuous fiber-reinforced tape and pellets. The acrylate copolymer contains ester, imide, acid, and acid anhydride units. The composite can be used to make thermoplastic composite pipes for transporting various fluids, such as crude oil, gas, and hydraulic oils.</t>
+          <t>The invention involves composites with a thermoplastic matrix made of modified PVDF. The composite can be a pelletized long-fiber material or a finished part, such as a thermoplastic composite pipe. The PVDF content is at least 50 parts by weight, with an acrylate copolymer making up the rest. The acrylate copolymer contains certain units, and the fibers make up 10-80% of the composite's volume. The low-viscosity PVDF has a melt flow index of 18-50 g/10 min. The composite can be in the form of a unidirectionally continuous fiber-reinforced tape or pellets. The article made from the composite can be a thermoplastic composite pipe with optional outer cover layers. The pipe can be used for transporting various fluids, including crude oil and gas.</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>The text describes a process for creating molded articles using a thin-walled, gas-permeable shell filled with foamed pelletized material made of a polymer, which is then welded to obtain the final product. The shell can be porous and made of various materials, and the foamed pelletized material can be filled into the shell in various ways. The process can be used to create various types of molded articles, including footwear soles, mattresses, and automobile parts. Claims include details such as the welding method, shell material, and the possibility of filling the shell with multiple types of foamed pelletized material.</t>
+          <t>The text describes a process for creating molded articles using a thin-walled, gas-permeable shell filled with foamed pelletized material made of a polymer, which is then welded to obtain the final product. The shell can be porous and made of various materials, and the foamed pelletized material can be filled into the shell in various ways. The process can be used to create various types of molded articles, including footwear soles, mattresses, and automobile parts. Claims include details about the shell, welding process, and materials used.</t>
         </is>
       </c>
     </row>
